--- a/OrderKanukiv.xlsx
+++ b/OrderKanukiv.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\xelarogi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
@@ -253,8 +258,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -473,6 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,9 +580,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,6 +615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -783,15 +791,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -807,13 +815,13 @@
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -821,27 +829,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -865,23 +873,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" s="16" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
@@ -916,7 +924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -949,7 +957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -984,7 +992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1028,7 @@
       </c>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>52</v>
       </c>
@@ -1334,7 +1342,7 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>57</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
@@ -1539,6 +1547,26 @@
       <c r="K31" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="14"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="14"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/OrderKanukiv.xlsx
+++ b/OrderKanukiv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>Информация о турнире</t>
   </si>
@@ -105,15 +105,9 @@
     <t>М</t>
   </si>
   <si>
-    <t>Фулл</t>
-  </si>
-  <si>
     <t>КМС</t>
   </si>
   <si>
-    <t>Лайт</t>
-  </si>
-  <si>
     <t>Москва</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>фулл</t>
-  </si>
-  <si>
     <t>Максимовна</t>
   </si>
   <si>
@@ -253,6 +244,12 @@
   </si>
   <si>
     <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Фулл-контакт</t>
+  </si>
+  <si>
+    <t>Лайт-контакт</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -479,6 +476,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,7 +799,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +819,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -840,10 +843,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
         <v>19</v>
@@ -854,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
@@ -866,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
@@ -875,19 +878,19 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -932,10 +935,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8">
-        <v>1980</v>
+        <v>34852</v>
       </c>
       <c r="E14" s="7">
         <v>63</v>
@@ -943,18 +946,18 @@
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
+      <c r="G14" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9">
         <v>33248</v>
@@ -976,31 +979,31 @@
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>28</v>
+      <c r="G15" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="9">
         <v>36209</v>
@@ -1011,32 +1014,32 @@
       <c r="F16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>28</v>
+      <c r="G16" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9">
         <v>35775</v>
@@ -1045,33 +1048,33 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="9">
         <v>35775</v>
@@ -1080,33 +1083,33 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="9">
         <v>35800</v>
@@ -1115,33 +1118,33 @@
         <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="9">
         <v>36643</v>
@@ -1152,31 +1155,31 @@
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>28</v>
+      <c r="G20" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="9">
         <v>38529</v>
@@ -1187,31 +1190,31 @@
       <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
+      <c r="G21" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9">
         <v>37235</v>
@@ -1220,33 +1223,33 @@
         <v>56</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="9">
         <v>37235</v>
@@ -1255,33 +1258,33 @@
         <v>56</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="9">
         <v>38356</v>
@@ -1290,31 +1293,31 @@
         <v>25</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" s="9">
         <v>38307</v>
@@ -1323,34 +1326,34 @@
         <v>37</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9">
         <v>38035</v>
@@ -1361,29 +1364,29 @@
       <c r="F26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
+      <c r="G26" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" s="9">
         <v>37100</v>
@@ -1392,33 +1395,33 @@
         <v>48</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="9">
         <v>37100</v>
@@ -1427,33 +1430,33 @@
         <v>48</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" s="9">
         <v>38643</v>
@@ -1464,31 +1467,31 @@
       <c r="F29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>30</v>
+      <c r="G29" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="9">
         <v>37489</v>
@@ -1499,31 +1502,31 @@
       <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>28</v>
+      <c r="G30" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9">
         <v>36367</v>
@@ -1532,20 +1535,20 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">

--- a/OrderKanukiv.xlsx
+++ b/OrderKanukiv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>Информация о турнире</t>
   </si>
@@ -108,9 +108,6 @@
     <t>КМС</t>
   </si>
   <si>
-    <t>Москва</t>
-  </si>
-  <si>
     <t>СК "АЛЕКС"</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Юлия</t>
   </si>
   <si>
-    <t>Россия</t>
-  </si>
-  <si>
     <t>Максимовна</t>
   </si>
   <si>
@@ -250,6 +244,15 @@
   </si>
   <si>
     <t>Лайт-контакт</t>
+  </si>
+  <si>
+    <t>Шведция</t>
+  </si>
+  <si>
+    <t>Турко область</t>
+  </si>
+  <si>
+    <t>Турко</t>
   </si>
 </sst>
 </file>
@@ -798,8 +801,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
@@ -869,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
@@ -935,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8">
         <v>34852</v>
@@ -947,17 +950,17 @@
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -968,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9">
         <v>33248</v>
@@ -980,30 +983,30 @@
         <v>27</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="9">
         <v>36209</v>
@@ -1015,31 +1018,31 @@
         <v>27</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9">
         <v>35775</v>
@@ -1048,33 +1051,33 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="9">
         <v>35775</v>
@@ -1083,33 +1086,33 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9">
         <v>35800</v>
@@ -1118,33 +1121,33 @@
         <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="9">
         <v>36643</v>
@@ -1156,30 +1159,30 @@
         <v>27</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9">
         <v>38529</v>
@@ -1191,30 +1194,30 @@
         <v>27</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="9">
         <v>37235</v>
@@ -1223,33 +1226,33 @@
         <v>56</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="9">
         <v>37235</v>
@@ -1258,33 +1261,33 @@
         <v>56</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9">
         <v>38356</v>
@@ -1293,31 +1296,31 @@
         <v>25</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9">
         <v>38307</v>
@@ -1326,34 +1329,34 @@
         <v>37</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="9">
         <v>38035</v>
@@ -1365,28 +1368,28 @@
         <v>27</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9">
         <v>37100</v>
@@ -1395,33 +1398,33 @@
         <v>48</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="9">
         <v>37100</v>
@@ -1430,33 +1433,33 @@
         <v>48</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="9">
         <v>38643</v>
@@ -1468,30 +1471,30 @@
         <v>27</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="9">
         <v>37489</v>
@@ -1503,30 +1506,30 @@
         <v>27</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="9">
         <v>36367</v>
@@ -1535,20 +1538,20 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">

--- a/OrderKanukiv.xlsx
+++ b/OrderKanukiv.xlsx
@@ -240,19 +240,19 @@
     <t>Владимирович</t>
   </si>
   <si>
-    <t>Фулл-контакт</t>
-  </si>
-  <si>
-    <t>Лайт-контакт</t>
-  </si>
-  <si>
-    <t>Шведция</t>
-  </si>
-  <si>
     <t>Турко область</t>
   </si>
   <si>
     <t>Турко</t>
+  </si>
+  <si>
+    <t>Швеция</t>
+  </si>
+  <si>
+    <t>Фулл контакт</t>
+  </si>
+  <si>
+    <t>Лайт контакт</t>
   </si>
 </sst>
 </file>
@@ -477,12 +477,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -859,7 +861,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="1"/>
@@ -872,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
@@ -949,11 +951,11 @@
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>73</v>
+      <c r="G14" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>29</v>
@@ -982,11 +984,11 @@
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>73</v>
+      <c r="G15" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>29</v>
@@ -1017,11 +1019,11 @@
       <c r="F16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>73</v>
+      <c r="G16" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>29</v>
@@ -1053,11 +1055,11 @@
       <c r="F17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>74</v>
+      <c r="G17" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>29</v>
@@ -1088,11 +1090,11 @@
       <c r="F18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>73</v>
+      <c r="G18" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>29</v>
@@ -1123,11 +1125,11 @@
       <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>73</v>
+      <c r="G19" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>29</v>
@@ -1158,11 +1160,11 @@
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>73</v>
+      <c r="G20" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>29</v>
@@ -1193,11 +1195,11 @@
       <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>74</v>
+      <c r="G21" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>29</v>
@@ -1228,11 +1230,11 @@
       <c r="F22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>74</v>
+      <c r="G22" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -1263,11 +1265,11 @@
       <c r="F23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>73</v>
+      <c r="G23" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>29</v>
@@ -1298,11 +1300,11 @@
       <c r="F24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>74</v>
+      <c r="G24" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>29</v>
@@ -1331,11 +1333,11 @@
       <c r="F25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>74</v>
+      <c r="G25" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>29</v>
@@ -1367,11 +1369,11 @@
       <c r="F26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>74</v>
+      <c r="G26" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
@@ -1400,11 +1402,11 @@
       <c r="F27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>74</v>
+      <c r="G27" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>29</v>
@@ -1435,11 +1437,11 @@
       <c r="F28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>73</v>
+      <c r="G28" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>29</v>
@@ -1470,11 +1472,11 @@
       <c r="F29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>74</v>
+      <c r="G29" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>29</v>
@@ -1505,11 +1507,11 @@
       <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>73</v>
+      <c r="G30" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>29</v>
@@ -1540,11 +1542,11 @@
       <c r="F31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>73</v>
+      <c r="G31" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>29</v>
@@ -1555,7 +1557,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -1565,7 +1567,7 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
